--- a/daraz produts tracking/Basmati Rice.xlsx
+++ b/daraz produts tracking/Basmati Rice.xlsx
@@ -636,7 +636,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -706,10 +706,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -905,7 +901,7 @@
   <dimension ref="A1:BE61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1186,7 +1182,7 @@
         <f aca="false">SUM(L9-M9)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="U9" s="1"/>
@@ -1248,7 +1244,7 @@
         <v>105</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>0</v>
@@ -1265,11 +1261,11 @@
       <c r="M10" s="5"/>
       <c r="N10" s="17" t="n">
         <f aca="false">SUM(G10-H10)</f>
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="O10" s="10" t="n">
         <f aca="false">SUM(H10-I10)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="P10" s="10" t="n">
         <f aca="false">SUM(I10-J10)</f>
@@ -1287,7 +1283,7 @@
         <f aca="false">SUM(L10-M10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="U10" s="1"/>
@@ -1450,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="H12" s="15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I12" s="15" t="n">
         <v>0</v>
@@ -1467,11 +1463,11 @@
       <c r="M12" s="5"/>
       <c r="N12" s="17" t="n">
         <f aca="false">SUM(G12-H12)</f>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O12" s="10" t="n">
         <f aca="false">SUM(H12-I12)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P12" s="10" t="n">
         <f aca="false">SUM(I12-J12)</f>
@@ -1551,7 +1547,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="15" t="n">
         <v>0</v>
@@ -1568,11 +1564,11 @@
       <c r="M13" s="5"/>
       <c r="N13" s="17" t="n">
         <f aca="false">SUM(G13-H13)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O13" s="10" t="n">
         <f aca="false">SUM(H13-I13)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P13" s="10" t="n">
         <f aca="false">SUM(I13-J13)</f>
@@ -1652,7 +1648,7 @@
         <v>87</v>
       </c>
       <c r="H14" s="15" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I14" s="15" t="n">
         <v>0</v>
@@ -1669,11 +1665,11 @@
       <c r="M14" s="5"/>
       <c r="N14" s="17" t="n">
         <f aca="false">SUM(G14-H14)</f>
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="O14" s="10" t="n">
         <f aca="false">SUM(H14-I14)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="P14" s="10" t="n">
         <f aca="false">SUM(I14-J14)</f>
@@ -1753,7 +1749,7 @@
         <v>128</v>
       </c>
       <c r="H15" s="15" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="I15" s="15" t="n">
         <v>0</v>
@@ -1770,11 +1766,11 @@
       <c r="M15" s="5"/>
       <c r="N15" s="17" t="n">
         <f aca="false">SUM(G15-H15)</f>
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="O15" s="10" t="n">
         <f aca="false">SUM(H15-I15)</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="P15" s="10" t="n">
         <f aca="false">SUM(I15-J15)</f>
@@ -1861,7 +1857,7 @@
         <f aca="false">SUM(L16-M16)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="19"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1903,7 +1899,7 @@
     <row r="17" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="17" t="n">
         <f aca="false">SUM(G17-H17)</f>
         <v>0</v>
@@ -1928,7 +1924,7 @@
         <f aca="false">SUM(L17-M17)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="19"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1968,223 +1964,223 @@
       <c r="BE17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="19" t="s">
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="22" t="n">
+      <c r="N18" s="21" t="n">
         <f aca="false">AVERAGE(N8:N17)</f>
-        <v>36</v>
-      </c>
-      <c r="O18" s="22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O18" s="21" t="n">
         <f aca="false">AVERAGE(O8:O17)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="22" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="P18" s="21" t="n">
         <f aca="false">AVERAGE(P8:P17)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="22" t="n">
+      <c r="Q18" s="21" t="n">
         <f aca="false">AVERAGE(Q8:Q17)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="22" t="n">
+      <c r="R18" s="21" t="n">
         <f aca="false">AVERAGE(R8:R17)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="23" t="n">
+      <c r="S18" s="22" t="n">
         <f aca="false">AVERAGE(S8:S17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="19" t="s">
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="25" t="n">
+      <c r="N19" s="24" t="n">
         <f aca="false">AVERAGE(N18:S18)</f>
         <v>6</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="S19" s="26"/>
+      <c r="O19" s="24"/>
+      <c r="S19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="19" t="s">
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="28" t="n">
+      <c r="N20" s="27" t="n">
         <f aca="false">AVERAGE(N8:S8)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="30"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="N25" s="33" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="N25" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33" t="s">
+      <c r="O25" s="32"/>
+      <c r="P25" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34" t="s">
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="N26" s="36" t="s">
+      <c r="I26" s="33"/>
+      <c r="N26" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36" t="s">
+      <c r="O26" s="35"/>
+      <c r="P26" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38" t="n">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37" t="n">
         <v>105</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40" t="s">
+      <c r="G27" s="38"/>
+      <c r="H27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="40" t="n">
+      <c r="I27" s="39" t="n">
         <v>45</v>
       </c>
-      <c r="N27" s="36" t="s">
+      <c r="N27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36" t="s">
+      <c r="O27" s="35"/>
+      <c r="P27" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42" t="n">
+      <c r="E28" s="40"/>
+      <c r="F28" s="41" t="n">
         <f aca="false">(F27/100)*I29</f>
         <v>3.57</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="N28" s="36" t="s">
+      <c r="G28" s="38"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="N28" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36" t="s">
+      <c r="O28" s="35"/>
+      <c r="P28" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42" t="n">
+      <c r="E29" s="40"/>
+      <c r="F29" s="41" t="n">
         <v>49</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="43" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="43" t="n">
+      <c r="I29" s="42" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="42" t="n">
+      <c r="E30" s="43"/>
+      <c r="F30" s="41" t="n">
         <v>7.5</v>
       </c>
-      <c r="G30" s="32"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42" t="n">
+      <c r="E31" s="41"/>
+      <c r="F31" s="41" t="n">
         <f aca="false">(F27*0.0125)</f>
         <v>1.3125</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42" t="n">
+      <c r="E32" s="41"/>
+      <c r="F32" s="41" t="n">
         <f aca="false">(F28+F29+F31)*16%</f>
         <v>8.6212</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42" t="n">
+      <c r="E33" s="41"/>
+      <c r="F33" s="41" t="n">
         <f aca="false">(I27+F28+F30+F31+F32)</f>
         <v>66.0037</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42" t="n">
+      <c r="E34" s="41"/>
+      <c r="F34" s="41" t="n">
         <f aca="false">F27-F33</f>
         <v>38.9963</v>
       </c>
@@ -2192,7 +2188,7 @@
         <f aca="false">(F34/F27)*100</f>
         <v>37.1393333333333</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="44" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2240,14 +2236,14 @@
     <mergeCell ref="D29:E29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T8" r:id="rId1" display="https://www.daraz.pk/products/five-star-super-daaghi-super-basmati-rice-5-kg-i100344229-s1244389995.html?spm=a2a0e.searchlist.list.2.1b8c7cceza9TlU&amp;search=1"/>
-    <hyperlink ref="T9" r:id="rId2" display="https://www.daraz.pk/products/five-star-super-basmati-broken-rice-5-kg-i100431102-s1245756113.html?spm=a2a0e.searchlist.list.4.1b8c7cceza9TlU&amp;search=1"/>
-    <hyperlink ref="T10" r:id="rId3" display="https://www.daraz.pk/products/motidana-daily-basmati-rice-5-kg-i100009024-s1013440280.html?spm=a2a0e.searchlist.list.6.1b8c7cceza9TlU&amp;search=1"/>
-    <hyperlink ref="T11" r:id="rId4" display="https://www.daraz.pk/products/xxl-extra-long-grain-1121-white-basmati-rice-5-kg-i100009021-s1013440274.html?spm=a2a0e.searchlist.list.8.1b8c7cceza9TlU&amp;search=1"/>
-    <hyperlink ref="T12" r:id="rId5" display="https://www.daraz.pk/products/khusboo-super-basmati-rice-5-kg-i100023498-s1013559842.html?spm=a2a0e.searchlist.list.10.1b8c7cceza9TlU&amp;search=1"/>
-    <hyperlink ref="T13" r:id="rId6" display="https://www.daraz.pk/products/traditional-super-kernal-basmati-rice-5-kg-i100009023-s1013440278.html?spm=a2a0e.searchlist.list.18.1b8c7cceza9TlU&amp;search=1"/>
-    <hyperlink ref="T14" r:id="rId7" display="https://www.daraz.pk/products/classic-super-basmati-rice-5-kg-i100420097-s1245757092.html?spm=a2a0e.searchlist.list.20.1b8c7cceza9TlU&amp;search=1"/>
-    <hyperlink ref="T15" r:id="rId8" display="https://www.daraz.pk/products/five-star-tahary-super-basmati-ponia-rice-5-kg-i100430092-s1245753137.html?spm=a2a0e.searchlist.list.22.1b8c7cceza9TlU&amp;search=1"/>
+    <hyperlink ref="T8" r:id="rId1" display="View-source:https://www.daraz.pk/products/five-star-super-daaghi-super-basmati-rice-5-kg-i100344229-s1244389995.html?spm=a2a0e.searchlist.list.2.1b8c7cceza9TlU&amp;search=1"/>
+    <hyperlink ref="T9" r:id="rId2" display="View-source:https://www.daraz.pk/products/five-star-super-basmati-broken-rice-5-kg-i100431102-s1245756113.html?spm=a2a0e.searchlist.list.4.1b8c7cceza9TlU&amp;search=1"/>
+    <hyperlink ref="T10" r:id="rId3" display="View-source:https://www.daraz.pk/products/motidana-daily-basmati-rice-5-kg-i100009024-s1013440280.html?spm=a2a0e.searchlist.list.6.1b8c7cceza9TlU&amp;search=1"/>
+    <hyperlink ref="T11" r:id="rId4" display="View-source:https://www.daraz.pk/products/xxl-extra-long-grain-1121-white-basmati-rice-5-kg-i100009021-s1013440274.html?spm=a2a0e.searchlist.list.8.1b8c7cceza9TlU&amp;search=1"/>
+    <hyperlink ref="T12" r:id="rId5" display="View-source:https://www.daraz.pk/products/khusboo-super-basmati-rice-5-kg-i100023498-s1013559842.html?spm=a2a0e.searchlist.list.10.1b8c7cceza9TlU&amp;search=1"/>
+    <hyperlink ref="T13" r:id="rId6" display="View-source:https://www.daraz.pk/products/traditional-super-kernal-basmati-rice-5-kg-i100009023-s1013440278.html?spm=a2a0e.searchlist.list.18.1b8c7cceza9TlU&amp;search=1"/>
+    <hyperlink ref="T14" r:id="rId7" display="View-source:https://www.daraz.pk/products/classic-super-basmati-rice-5-kg-i100420097-s1245757092.html?spm=a2a0e.searchlist.list.20.1b8c7cceza9TlU&amp;search=1"/>
+    <hyperlink ref="T15" r:id="rId8" display="View-source:https://www.daraz.pk/products/five-star-tahary-super-basmati-ponia-rice-5-kg-i100430092-s1245753137.html?spm=a2a0e.searchlist.list.22.1b8c7cceza9TlU&amp;search=1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3223,7 +3219,7 @@
         <f aca="false">SUM(L16-M16)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="19"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -3265,7 +3261,7 @@
     <row r="17" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="17" t="n">
         <f aca="false">SUM(G17-H17)</f>
         <v>0</v>
@@ -3290,7 +3286,7 @@
         <f aca="false">SUM(L17-M17)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="19"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -3330,223 +3326,223 @@
       <c r="BE17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="19" t="s">
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="22" t="n">
+      <c r="N18" s="21" t="n">
         <f aca="false">AVERAGE(N8:N17)</f>
         <v>3</v>
       </c>
-      <c r="O18" s="22" t="n">
+      <c r="O18" s="21" t="n">
         <f aca="false">AVERAGE(O8:O17)</f>
         <v>29.1</v>
       </c>
-      <c r="P18" s="22" t="n">
+      <c r="P18" s="21" t="n">
         <f aca="false">AVERAGE(P8:P17)</f>
         <v>34.5</v>
       </c>
-      <c r="Q18" s="22" t="n">
+      <c r="Q18" s="21" t="n">
         <f aca="false">AVERAGE(Q8:Q17)</f>
         <v>0.8</v>
       </c>
-      <c r="R18" s="22" t="n">
+      <c r="R18" s="21" t="n">
         <f aca="false">AVERAGE(R8:R17)</f>
         <v>1.1</v>
       </c>
-      <c r="S18" s="23" t="n">
+      <c r="S18" s="22" t="n">
         <f aca="false">AVERAGE(S8:S17)</f>
         <v>57.9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="19" t="s">
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="25" t="n">
+      <c r="N19" s="24" t="n">
         <f aca="false">AVERAGE(N18:S18)</f>
         <v>21.0666666666667</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="S19" s="26"/>
+      <c r="O19" s="24"/>
+      <c r="S19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="19" t="s">
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="28" t="n">
+      <c r="N20" s="27" t="n">
         <f aca="false">AVERAGE(N8:S8)</f>
         <v>8.16666666666667</v>
       </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="30"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="N25" s="33" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="N25" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33" t="s">
+      <c r="O25" s="32"/>
+      <c r="P25" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34" t="s">
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="N26" s="36" t="s">
+      <c r="I26" s="33"/>
+      <c r="N26" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36" t="s">
+      <c r="O26" s="35"/>
+      <c r="P26" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38" t="n">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37" t="n">
         <v>105</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40" t="s">
+      <c r="G27" s="38"/>
+      <c r="H27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="40" t="n">
+      <c r="I27" s="39" t="n">
         <v>45</v>
       </c>
-      <c r="N27" s="36" t="s">
+      <c r="N27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36" t="s">
+      <c r="O27" s="35"/>
+      <c r="P27" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42" t="n">
+      <c r="E28" s="40"/>
+      <c r="F28" s="41" t="n">
         <f aca="false">(F27/100)*I29</f>
         <v>3.57</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="N28" s="36" t="s">
+      <c r="G28" s="38"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="N28" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36" t="s">
+      <c r="O28" s="35"/>
+      <c r="P28" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42" t="n">
+      <c r="E29" s="40"/>
+      <c r="F29" s="41" t="n">
         <v>49</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="43" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="43" t="n">
+      <c r="I29" s="42" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="42" t="n">
+      <c r="E30" s="43"/>
+      <c r="F30" s="41" t="n">
         <v>7.5</v>
       </c>
-      <c r="G30" s="32"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42" t="n">
+      <c r="E31" s="41"/>
+      <c r="F31" s="41" t="n">
         <f aca="false">(F27*0.0125)</f>
         <v>1.3125</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42" t="n">
+      <c r="E32" s="41"/>
+      <c r="F32" s="41" t="n">
         <f aca="false">(F28+F29+F31)*16%</f>
         <v>8.6212</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42" t="n">
+      <c r="E33" s="41"/>
+      <c r="F33" s="41" t="n">
         <f aca="false">(I27+F28+F30+F31+F32)</f>
         <v>66.0037</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42" t="n">
+      <c r="E34" s="41"/>
+      <c r="F34" s="41" t="n">
         <f aca="false">F27-F33</f>
         <v>38.9963</v>
       </c>
@@ -3554,7 +3550,7 @@
         <f aca="false">(F34/F27)*100</f>
         <v>37.1393333333333</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="44" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3632,7 +3628,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3655,7 +3651,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
